--- a/2020/February/All Details/20.02.2020/MC Bank Statement Feb'2020.xlsx
+++ b/2020/February/All Details/20.02.2020/MC Bank Statement Feb'2020.xlsx
@@ -219,9 +219,6 @@
     <t>N=Moldol Mobile</t>
   </si>
   <si>
-    <t>Symphony  Balance(-)</t>
-  </si>
-  <si>
     <t>19.02.2020</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>Nal=Sap Telecom</t>
+  </si>
+  <si>
+    <t>Symphony  Balance(+)</t>
   </si>
 </sst>
 </file>
@@ -1572,6 +1572,9 @@
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="36" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1610,9 +1613,6 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1705,7 +1705,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1717,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1740,14 +1740,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2074,21 +2074,21 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="143"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
       <c r="A3" s="60"/>
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="B4" s="61" t="s">
@@ -2604,7 +2604,7 @@
     <row r="31" spans="1:8">
       <c r="A31" s="60"/>
       <c r="B31" s="66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="64">
         <v>520000</v>
@@ -2623,7 +2623,7 @@
     <row r="32" spans="1:8">
       <c r="A32" s="60"/>
       <c r="B32" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="136">
         <v>300000</v>
@@ -2642,12 +2642,12 @@
     <row r="33" spans="1:8">
       <c r="A33" s="60"/>
       <c r="B33" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="136">
         <v>100000</v>
       </c>
-      <c r="D33" s="153">
+      <c r="D33" s="140">
         <v>400000</v>
       </c>
       <c r="E33" s="96">
@@ -2655,7 +2655,7 @@
         <v>15000</v>
       </c>
       <c r="F33" s="137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="60"/>
@@ -3276,8 +3276,8 @@
   </sheetPr>
   <dimension ref="A1:AK222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H8:I9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -3301,24 +3301,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="27" customHeight="1">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="146"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="147"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A2" s="147" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="149"/>
+      <c r="A2" s="148" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150"/>
       <c r="F2" s="5"/>
       <c r="G2" s="14"/>
       <c r="H2" s="2"/>
@@ -3497,7 +3497,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="107">
-        <v>0</v>
+        <v>170000</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="99"/>
@@ -3542,7 +3542,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="40">
-        <v>0</v>
+        <v>1779520</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="99"/>
@@ -3627,10 +3627,10 @@
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E9" s="106">
-        <v>0</v>
+        <v>301009.04750000034</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="99"/>
@@ -3807,12 +3807,12 @@
       </c>
       <c r="E13" s="41">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>4447247.6324999994</v>
+        <v>6697776.6799999997</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="88">
         <f>B13-E13</f>
-        <v>2250529.0475000003</v>
+        <v>0</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="15"/>
@@ -3887,13 +3887,13 @@
       <c r="AK14" s="8"/>
     </row>
     <row r="15" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="152"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="153"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="17" spans="1:37" ht="21.75" customHeight="1">
       <c r="A17" s="113" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="86">
         <v>25000</v>
@@ -4071,7 +4071,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="87">
-        <v>149360</v>
+        <v>127360</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="35" t="s">

--- a/2020/February/All Details/20.02.2020/MC Bank Statement Feb'2020.xlsx
+++ b/2020/February/All Details/20.02.2020/MC Bank Statement Feb'2020.xlsx
@@ -1705,7 +1705,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1717,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1740,14 +1740,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3276,8 +3276,8 @@
   </sheetPr>
   <dimension ref="A1:AK222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
